--- a/Figures/Initial Coding Results.xlsx
+++ b/Figures/Initial Coding Results.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hk/Documents/GitHub/CIND820/CIND820_Capstone Project/CIND820_CAPSTONE/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D976F408-A651-964F-AEC5-96D82CBD049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A6CA57-2F5C-014E-9F24-4991014D1DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46600" yWindow="500" windowWidth="21060" windowHeight="19400" xr2:uid="{D9461CC2-CE33-AD4A-BA5F-18E66DEF87B6}"/>
+    <workbookView xWindow="34760" yWindow="980" windowWidth="21800" windowHeight="19400" xr2:uid="{D9461CC2-CE33-AD4A-BA5F-18E66DEF87B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$I$6</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Random Forest</t>
   </si>
@@ -84,14 +84,18 @@
   </si>
   <si>
     <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Exponentiated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -107,12 +111,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -139,6 +137,13 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,20 +178,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -520,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295FF467-F39B-E846-B3B4-AC5A41CE746C}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,166 +542,188 @@
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.70322861180563101</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.70322861180563101</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.70204368922074001</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.70221926130424295</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.262153383627588</v>
+      </c>
+      <c r="I2" s="8">
+        <f>EXP(H2)</f>
+        <v>1.2997258838120678</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.63159039025981001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.63159039025981001</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.63212072220856996</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.63180682779682695</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.30578861370160598</v>
+      </c>
+      <c r="I3" s="8">
+        <f>EXP(H3)</f>
+        <v>1.3576952780328433</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.50219226727542798</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.50219226727542798</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.49384697889458901</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.49561807038689398</v>
       </c>
+      <c r="G4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.31399552486342103</v>
+      </c>
+      <c r="I4" s="8">
+        <f>EXP(H4)</f>
+        <v>1.3688836105925504</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.49008950248215299</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.49008950248215299</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.482694346546854</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.48464964581425302</v>
       </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.32718377417470701</v>
+      </c>
+      <c r="I5" s="8">
+        <f>EXP(H5)</f>
+        <v>1.3870563588968747</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.42645939776062602</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.42645939776062602</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.41256697943356901</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.416431087988681</v>
       </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.34655297557726999</v>
+      </c>
+      <c r="I6" s="8">
+        <f>EXP(H6)</f>
+        <v>1.4141844090814428</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.39866652172337502</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.39866652172337502</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.38094426719313901</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.38405381176029502</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.262153383627588</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Figures/Initial Coding Results.xlsx
+++ b/Figures/Initial Coding Results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hk/Documents/GitHub/CIND820/CIND820_Capstone Project/CIND820_CAPSTONE/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A6CA57-2F5C-014E-9F24-4991014D1DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8FA6F1-0B3C-4F42-A1FC-8F5A2D5C4F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34760" yWindow="980" windowWidth="21800" windowHeight="19400" xr2:uid="{D9461CC2-CE33-AD4A-BA5F-18E66DEF87B6}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{D9461CC2-CE33-AD4A-BA5F-18E66DEF87B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$I$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$3:$I$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Random Forest</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Exponentiated</t>
+  </si>
+  <si>
+    <t>Initial Results</t>
+  </si>
+  <si>
+    <t>Computational Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seconds </t>
+  </si>
+  <si>
+    <t>Minutes</t>
   </si>
 </sst>
 </file>
@@ -97,7 +109,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +157,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,7 +201,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -193,6 +211,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -529,201 +555,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295FF467-F39B-E846-B3B4-AC5A41CE746C}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.70322861180563101</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.70322861180563101</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.70204368922074001</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.70221926130424295</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.262153383627588</v>
-      </c>
-      <c r="I2" s="8">
-        <f>EXP(H2)</f>
-        <v>1.2997258838120678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.63159039025981001</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.63159039025981001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.63212072220856996</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.63180682779682695</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.30578861370160598</v>
-      </c>
-      <c r="I3" s="8">
-        <f>EXP(H3)</f>
-        <v>1.3576952780328433</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>0.50219226727542798</v>
+        <v>0.70322861180563101</v>
       </c>
       <c r="C4" s="1">
-        <v>0.50219226727542798</v>
+        <v>0.70322861180563101</v>
       </c>
       <c r="D4" s="1">
-        <v>0.49384697889458901</v>
+        <v>0.70204368922074001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.49561807038689398</v>
+        <v>0.70221926130424295</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>0.31399552486342103</v>
+        <v>0.262153383627588</v>
       </c>
       <c r="I4" s="8">
         <f>EXP(H4)</f>
-        <v>1.3688836105925504</v>
+        <v>1.2997258838120678</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>0.49008950248215299</v>
+        <v>0.63159039025981001</v>
       </c>
       <c r="C5" s="1">
-        <v>0.49008950248215299</v>
+        <v>0.63159039025981001</v>
       </c>
       <c r="D5" s="1">
-        <v>0.482694346546854</v>
+        <v>0.63212072220856996</v>
       </c>
       <c r="E5" s="1">
-        <v>0.48464964581425302</v>
+        <v>0.63180682779682695</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="5">
-        <v>0.32718377417470701</v>
+        <v>0.30578861370160598</v>
       </c>
       <c r="I5" s="8">
         <f>EXP(H5)</f>
-        <v>1.3870563588968747</v>
+        <v>1.3576952780328433</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>0.42645939776062602</v>
+        <v>0.50219226727542798</v>
       </c>
       <c r="C6" s="1">
-        <v>0.42645939776062602</v>
+        <v>0.50219226727542798</v>
       </c>
       <c r="D6" s="1">
-        <v>0.41256697943356901</v>
+        <v>0.49384697889458901</v>
       </c>
       <c r="E6" s="1">
-        <v>0.416431087988681</v>
+        <v>0.49561807038689398</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" s="5">
-        <v>0.34655297557726999</v>
+        <v>0.31399552486342103</v>
       </c>
       <c r="I6" s="8">
         <f>EXP(H6)</f>
-        <v>1.4141844090814428</v>
+        <v>1.3688836105925504</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.49008950248215299</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.49008950248215299</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.482694346546854</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.48464964581425302</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.32718377417470701</v>
+      </c>
+      <c r="I7" s="8">
+        <f>EXP(H7)</f>
+        <v>1.3870563588968747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.42645939776062602</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.42645939776062602</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.41256697943356901</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.416431087988681</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.34655297557726999</v>
+      </c>
+      <c r="I8" s="8">
+        <f>EXP(H8)</f>
+        <v>1.4141844090814428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" s="1">
         <v>0.39866652172337502</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C9" s="1">
         <v>0.39866652172337502</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D9" s="1">
         <v>0.38094426719313901</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E9" s="1">
         <v>0.38405381176029502</v>
       </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="G14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>132.06330394744799</v>
+      </c>
+      <c r="I14" s="16">
+        <f>H14/60</f>
+        <v>2.2010550657907997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="G15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="16">
+        <v>210.05901312827999</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" ref="I15:I18" si="0">H15/60</f>
+        <v>3.5009835521379999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="G16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0.25777578353881803</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="0"/>
+        <v>4.2962630589803005E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="G17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.12965488433837799</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="0"/>
+        <v>2.1609147389729665E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="G18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1.9843788146972601</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="0"/>
+        <v>3.3072980244954336E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Figures/Initial Coding Results.xlsx
+++ b/Figures/Initial Coding Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hk/Documents/GitHub/CIND820/CIND820_Capstone Project/CIND820_CAPSTONE/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8FA6F1-0B3C-4F42-A1FC-8F5A2D5C4F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CA83C3-3267-4540-A493-D6DBEDA1B59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{D9461CC2-CE33-AD4A-BA5F-18E66DEF87B6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$3:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$13:$I$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -105,11 +105,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,12 +158,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +196,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -212,13 +207,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -558,7 +552,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,8 +765,8 @@
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
       <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
@@ -785,110 +779,140 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="B14" s="14">
+        <v>354.23304510116498</v>
+      </c>
+      <c r="C14" s="13">
+        <f>B14/60</f>
+        <v>5.9038840850194161</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
       <c r="G14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16">
-        <v>132.06330394744799</v>
-      </c>
-      <c r="I14" s="16">
+        <v>12</v>
+      </c>
+      <c r="H14" s="15">
+        <v>210.05901312827999</v>
+      </c>
+      <c r="I14" s="13">
         <f>H14/60</f>
-        <v>2.2010550657907997</v>
+        <v>3.5009835521379999</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
+        <v>104.886116027832</v>
+      </c>
+      <c r="C15" s="13">
+        <f>B15/60</f>
+        <v>1.7481019337972001</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="G15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="16">
-        <v>210.05901312827999</v>
-      </c>
-      <c r="I15" s="16">
-        <f t="shared" ref="I15:I18" si="0">H15/60</f>
-        <v>3.5009835521379999</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>132.06330394744799</v>
+      </c>
+      <c r="I15" s="13">
+        <f>H15/60</f>
+        <v>2.2010550657907997</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="14">
+        <v>4.3143820762634197</v>
+      </c>
+      <c r="C16" s="13">
+        <f>B16/60</f>
+        <v>7.1906367937723661E-2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="G16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="16">
-        <v>0.25777578353881803</v>
-      </c>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
-        <v>4.2962630589803005E-3</v>
+        <v>8</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1.9843788146972601</v>
+      </c>
+      <c r="I16" s="13">
+        <f>H16/60</f>
+        <v>3.3072980244954336E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2.6579613685607901</v>
+      </c>
+      <c r="C17" s="13">
+        <f>B17/60</f>
+        <v>4.4299356142679838E-2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="G17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="16">
-        <v>0.12965488433837799</v>
-      </c>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
-        <v>2.1609147389729665E-3</v>
+        <v>6</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0.25777578353881803</v>
+      </c>
+      <c r="I17" s="13">
+        <f>H17/60</f>
+        <v>4.2962630589803005E-3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="14">
+        <v>1.8970212936401301</v>
+      </c>
+      <c r="C18" s="13">
+        <f>B18/60</f>
+        <v>3.1617021560668833E-2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
       <c r="G18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="16">
-        <v>1.9843788146972601</v>
-      </c>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
-        <v>3.3072980244954336E-2</v>
+        <v>11</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0.12965488433837799</v>
+      </c>
+      <c r="I18" s="13">
+        <f>H18/60</f>
+        <v>2.1609147389729665E-3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="B19" s="14">
+        <v>0.20777916908264099</v>
+      </c>
+      <c r="C19" s="13">
+        <f>B19/60</f>
+        <v>3.4629861513773498E-3</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
